--- a/Code/Results/Cases/Case_0_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_80/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.101968087554988</v>
+        <v>8.950324975496269</v>
       </c>
       <c r="D2">
-        <v>5.47214220092047</v>
+        <v>7.363184871255143</v>
       </c>
       <c r="E2">
-        <v>8.55386597903483</v>
+        <v>13.19849402262084</v>
       </c>
       <c r="F2">
-        <v>27.33949742994839</v>
+        <v>42.68664402002148</v>
       </c>
       <c r="G2">
-        <v>33.7021579386054</v>
+        <v>50.9240849741746</v>
       </c>
       <c r="H2">
-        <v>11.55222467919708</v>
+        <v>19.92095029115883</v>
       </c>
       <c r="I2">
-        <v>20.43474488246295</v>
+        <v>32.97184719964956</v>
       </c>
       <c r="J2">
-        <v>6.026778684869007</v>
+        <v>10.6380506989057</v>
       </c>
       <c r="K2">
-        <v>24.0539135788846</v>
+        <v>21.09292738975575</v>
       </c>
       <c r="L2">
-        <v>6.004479681451149</v>
+        <v>10.46520630913917</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.773257192832033</v>
+        <v>8.890693630935456</v>
       </c>
       <c r="D3">
-        <v>5.228524307363497</v>
+        <v>7.315966163578727</v>
       </c>
       <c r="E3">
-        <v>8.357658226112385</v>
+        <v>13.19054907684496</v>
       </c>
       <c r="F3">
-        <v>27.15493428642649</v>
+        <v>42.86244418527542</v>
       </c>
       <c r="G3">
-        <v>33.45105500230534</v>
+        <v>51.18971017092255</v>
       </c>
       <c r="H3">
-        <v>11.67013668901104</v>
+        <v>20.01788411387478</v>
       </c>
       <c r="I3">
-        <v>20.39920586096959</v>
+        <v>33.11653979976615</v>
       </c>
       <c r="J3">
-        <v>6.044809062988657</v>
+        <v>10.66209144419277</v>
       </c>
       <c r="K3">
-        <v>22.51621626676726</v>
+        <v>20.60778879199564</v>
       </c>
       <c r="L3">
-        <v>5.993523749829741</v>
+        <v>10.48220430971549</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.56550383333687</v>
+        <v>8.854868360279134</v>
       </c>
       <c r="D4">
-        <v>5.074166488074082</v>
+        <v>7.287213331911786</v>
       </c>
       <c r="E4">
-        <v>8.238575884468759</v>
+        <v>13.18735302576636</v>
       </c>
       <c r="F4">
-        <v>27.07881827029996</v>
+        <v>42.98247200471939</v>
       </c>
       <c r="G4">
-        <v>33.35867156045725</v>
+        <v>51.37086215606471</v>
       </c>
       <c r="H4">
-        <v>11.75517200134234</v>
+        <v>20.08177748253189</v>
       </c>
       <c r="I4">
-        <v>20.40418167793764</v>
+        <v>33.21403736568448</v>
       </c>
       <c r="J4">
-        <v>6.058497717936269</v>
+        <v>10.67805437236292</v>
       </c>
       <c r="K4">
-        <v>21.52380716577905</v>
+        <v>20.30615757025016</v>
       </c>
       <c r="L4">
-        <v>5.989055684643199</v>
+        <v>10.49371978272552</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.479445491462428</v>
+        <v>8.840477907332895</v>
       </c>
       <c r="D5">
-        <v>5.010125618778312</v>
+        <v>7.275563467309532</v>
       </c>
       <c r="E5">
-        <v>8.190442042213697</v>
+        <v>13.18647526498306</v>
       </c>
       <c r="F5">
-        <v>27.05674048367991</v>
+        <v>43.03440979836601</v>
       </c>
       <c r="G5">
-        <v>33.33577788734691</v>
+        <v>51.44919388666914</v>
       </c>
       <c r="H5">
-        <v>11.79282329296473</v>
+        <v>20.10891304141727</v>
       </c>
       <c r="I5">
-        <v>20.41260816706842</v>
+        <v>33.25593687791794</v>
       </c>
       <c r="J5">
-        <v>6.064717435421463</v>
+        <v>10.68486193606472</v>
       </c>
       <c r="K5">
-        <v>21.10732789903905</v>
+        <v>20.18245780067639</v>
       </c>
       <c r="L5">
-        <v>5.987791674457825</v>
+        <v>10.49868402568438</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.4650741992776</v>
+        <v>8.838101280495888</v>
       </c>
       <c r="D6">
-        <v>4.999424926549542</v>
+        <v>7.273633270699663</v>
       </c>
       <c r="E6">
-        <v>8.18247450520537</v>
+        <v>13.18635520705063</v>
       </c>
       <c r="F6">
-        <v>27.05360199575097</v>
+        <v>43.0432163582791</v>
       </c>
       <c r="G6">
-        <v>33.33284375569837</v>
+        <v>51.46247237613303</v>
       </c>
       <c r="H6">
-        <v>11.79925136459132</v>
+        <v>20.11348517506086</v>
       </c>
       <c r="I6">
-        <v>20.41438390723546</v>
+        <v>33.26302499177742</v>
       </c>
       <c r="J6">
-        <v>6.065788481286679</v>
+        <v>10.68601060939822</v>
       </c>
       <c r="K6">
-        <v>21.0374460892651</v>
+        <v>20.16187513263587</v>
       </c>
       <c r="L6">
-        <v>5.987615087637074</v>
+        <v>10.49952474859643</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.564348743645374</v>
+        <v>8.854673427404203</v>
       </c>
       <c r="D7">
-        <v>5.073307331555174</v>
+        <v>7.287055936856039</v>
       </c>
       <c r="E7">
-        <v>8.237925083886964</v>
+        <v>13.18733946647991</v>
       </c>
       <c r="F7">
-        <v>27.07848488389726</v>
+        <v>42.98316022419984</v>
       </c>
       <c r="G7">
-        <v>33.35830413954017</v>
+        <v>51.37190034081589</v>
       </c>
       <c r="H7">
-        <v>11.75566786618339</v>
+        <v>20.08213899680728</v>
       </c>
       <c r="I7">
-        <v>20.4042698613176</v>
+        <v>33.21459366797818</v>
       </c>
       <c r="J7">
-        <v>6.058579023551364</v>
+        <v>10.67814495613149</v>
       </c>
       <c r="K7">
-        <v>21.51823910481539</v>
+        <v>20.30449226230111</v>
       </c>
       <c r="L7">
-        <v>5.989036398189707</v>
+        <v>10.4937856320924</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.989908485268001</v>
+        <v>8.92960669700466</v>
       </c>
       <c r="D8">
-        <v>5.389167766693099</v>
+        <v>7.346858283827083</v>
       </c>
       <c r="E8">
-        <v>8.4859506646242</v>
+        <v>13.19540650695394</v>
       </c>
       <c r="F8">
-        <v>27.26789281200327</v>
+        <v>42.74474342146723</v>
       </c>
       <c r="G8">
-        <v>33.60229311710005</v>
+        <v>51.011907026074</v>
       </c>
       <c r="H8">
-        <v>11.59014670602967</v>
+        <v>19.95346383095642</v>
       </c>
       <c r="I8">
-        <v>20.41672566069386</v>
+        <v>33.01993587447267</v>
       </c>
       <c r="J8">
-        <v>6.032441841255578</v>
+        <v>10.64609071330558</v>
       </c>
       <c r="K8">
-        <v>23.53376001389177</v>
+        <v>20.9265254193253</v>
       </c>
       <c r="L8">
-        <v>6.000226392844709</v>
+        <v>10.4708435695032</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.774174938367497</v>
+        <v>9.082342116239978</v>
       </c>
       <c r="D9">
-        <v>5.968497853307705</v>
+        <v>7.465726384800497</v>
       </c>
       <c r="E9">
-        <v>8.981565022978334</v>
+        <v>13.22449567287344</v>
       </c>
       <c r="F9">
-        <v>27.95219860193549</v>
+        <v>42.373699799849</v>
       </c>
       <c r="G9">
-        <v>34.60361245973449</v>
+        <v>50.45054740481847</v>
       </c>
       <c r="H9">
-        <v>11.37446167726937</v>
+        <v>19.73593168938777</v>
       </c>
       <c r="I9">
-        <v>20.66879476184961</v>
+        <v>32.70725021773899</v>
       </c>
       <c r="J9">
-        <v>6.002758060941346</v>
+        <v>10.59275345362597</v>
       </c>
       <c r="K9">
-        <v>27.23246025866293</v>
+        <v>22.10982858381671</v>
       </c>
       <c r="L9">
-        <v>6.040614330163443</v>
+        <v>10.43439675676555</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.316429640001601</v>
+        <v>9.197449101120347</v>
       </c>
       <c r="D10">
-        <v>6.367495185113678</v>
+        <v>7.553619130013114</v>
       </c>
       <c r="E10">
-        <v>9.349182712949416</v>
+        <v>13.25384602847249</v>
       </c>
       <c r="F10">
-        <v>28.66842448789616</v>
+        <v>42.1607132428422</v>
       </c>
       <c r="G10">
-        <v>35.69829617563581</v>
+        <v>50.12802309977297</v>
       </c>
       <c r="H10">
-        <v>11.29518232565364</v>
+        <v>19.59743792663054</v>
       </c>
       <c r="I10">
-        <v>21.01294569757066</v>
+        <v>32.52009250024534</v>
       </c>
       <c r="J10">
-        <v>5.995275729995602</v>
+        <v>10.55935071489566</v>
       </c>
       <c r="K10">
-        <v>29.74092699145464</v>
+        <v>22.94854048610991</v>
       </c>
       <c r="L10">
-        <v>6.082280279731823</v>
+        <v>10.41280556783955</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.555315606198008</v>
+        <v>9.250302691051647</v>
       </c>
       <c r="D11">
-        <v>6.542942742986837</v>
+        <v>7.593636709562119</v>
       </c>
       <c r="E11">
-        <v>9.516816015053193</v>
+        <v>13.26890386946911</v>
       </c>
       <c r="F11">
-        <v>29.04507595871294</v>
+        <v>42.07692908735626</v>
       </c>
       <c r="G11">
-        <v>36.28163355069434</v>
+        <v>50.00118697870541</v>
       </c>
       <c r="H11">
-        <v>11.2793472279854</v>
+        <v>19.53908979591331</v>
       </c>
       <c r="I11">
-        <v>21.20821647478819</v>
+        <v>32.44429585022823</v>
       </c>
       <c r="J11">
-        <v>5.995262361808751</v>
+        <v>10.54540667717452</v>
       </c>
       <c r="K11">
-        <v>30.82608750530544</v>
+        <v>23.32183333815084</v>
       </c>
       <c r="L11">
-        <v>6.104012065985695</v>
+        <v>10.40410466247471</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.644635258204431</v>
+        <v>9.270375584727136</v>
       </c>
       <c r="D12">
-        <v>6.608495912641159</v>
+        <v>7.608787758696938</v>
       </c>
       <c r="E12">
-        <v>9.580328832724607</v>
+        <v>13.27484864184345</v>
       </c>
       <c r="F12">
-        <v>29.19535786146272</v>
+        <v>42.04709943045726</v>
       </c>
       <c r="G12">
-        <v>36.51533105255152</v>
+        <v>49.95604557336534</v>
       </c>
       <c r="H12">
-        <v>11.27652966523147</v>
+        <v>19.51766631421065</v>
       </c>
       <c r="I12">
-        <v>21.28806209203436</v>
+        <v>32.41694532338985</v>
       </c>
       <c r="J12">
-        <v>5.995770021758896</v>
+        <v>10.54030600388497</v>
       </c>
       <c r="K12">
-        <v>31.22914010228731</v>
+        <v>23.46188353038645</v>
       </c>
       <c r="L12">
-        <v>6.112655920717697</v>
+        <v>10.40097066338296</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.625449654841173</v>
+        <v>9.266050125888007</v>
       </c>
       <c r="D13">
-        <v>6.594417366411228</v>
+        <v>7.605524954009319</v>
       </c>
       <c r="E13">
-        <v>9.566649027686765</v>
+        <v>13.27355757887962</v>
       </c>
       <c r="F13">
-        <v>29.16264630489279</v>
+        <v>42.05343918044743</v>
       </c>
       <c r="G13">
-        <v>36.46442293058708</v>
+        <v>49.96563864347483</v>
       </c>
       <c r="H13">
-        <v>11.2769906491351</v>
+        <v>19.52225032969691</v>
       </c>
       <c r="I13">
-        <v>21.27059821873988</v>
+        <v>32.42277548186095</v>
       </c>
       <c r="J13">
-        <v>5.995637463241615</v>
+        <v>10.54139654023264</v>
       </c>
       <c r="K13">
-        <v>31.14268285638769</v>
+        <v>23.43178122829421</v>
       </c>
       <c r="L13">
-        <v>6.110775625930803</v>
+        <v>10.40163847834406</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.562686943840516</v>
+        <v>9.251952999979597</v>
       </c>
       <c r="D14">
-        <v>6.548353631253757</v>
+        <v>7.594883294645123</v>
       </c>
       <c r="E14">
-        <v>9.522040692603472</v>
+        <v>13.26938810130467</v>
       </c>
       <c r="F14">
-        <v>29.05728446186601</v>
+        <v>42.07443687933583</v>
       </c>
       <c r="G14">
-        <v>36.30060060017948</v>
+        <v>49.99741510740375</v>
       </c>
       <c r="H14">
-        <v>11.2790501201753</v>
+        <v>19.53731379678437</v>
       </c>
       <c r="I14">
-        <v>21.21466527055172</v>
+        <v>32.44201856069701</v>
       </c>
       <c r="J14">
-        <v>5.995293700554636</v>
+        <v>10.54498344316157</v>
       </c>
       <c r="K14">
-        <v>30.85940366856898</v>
+        <v>23.33338222893365</v>
       </c>
       <c r="L14">
-        <v>6.104714803950709</v>
+        <v>10.40384360499652</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.524093897488846</v>
+        <v>9.24332534408728</v>
       </c>
       <c r="D15">
-        <v>6.52002272632176</v>
+        <v>7.588364384931941</v>
       </c>
       <c r="E15">
-        <v>9.494720582680094</v>
+        <v>13.26686570027653</v>
       </c>
       <c r="F15">
-        <v>28.99375378049494</v>
+        <v>42.08754608065419</v>
       </c>
       <c r="G15">
-        <v>36.20193647649078</v>
+        <v>50.01725616838214</v>
       </c>
       <c r="H15">
-        <v>11.28073383779652</v>
+        <v>19.54662815540674</v>
       </c>
       <c r="I15">
-        <v>21.1811829849783</v>
+        <v>32.45398182775093</v>
       </c>
       <c r="J15">
-        <v>5.995150687299622</v>
+        <v>10.5472039101573</v>
       </c>
       <c r="K15">
-        <v>30.68486683988437</v>
+        <v>23.27293622057312</v>
       </c>
       <c r="L15">
-        <v>6.101056820163835</v>
+        <v>10.4052152447091</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.300659083440225</v>
+        <v>9.19400383048333</v>
       </c>
       <c r="D16">
-        <v>6.35590601049874</v>
+        <v>7.551003924574455</v>
       </c>
       <c r="E16">
-        <v>9.33823337356438</v>
+        <v>13.2528960732037</v>
       </c>
       <c r="F16">
-        <v>28.64486189888375</v>
+        <v>42.16645356715745</v>
       </c>
       <c r="G16">
-        <v>35.6619373967598</v>
+        <v>50.13671476836047</v>
       </c>
       <c r="H16">
-        <v>11.29664699871408</v>
+        <v>19.60134496776368</v>
       </c>
       <c r="I16">
-        <v>21.00099199894775</v>
+        <v>32.52523471999516</v>
       </c>
       <c r="J16">
-        <v>5.995346937899098</v>
+        <v>10.56028714182606</v>
       </c>
       <c r="K16">
-        <v>29.66889771002325</v>
+        <v>22.92396838594732</v>
       </c>
       <c r="L16">
-        <v>6.080917216420691</v>
+        <v>10.41339672011107</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.16157557221783</v>
+        <v>9.163863738703567</v>
       </c>
       <c r="D17">
-        <v>6.253661783502226</v>
+        <v>7.528087882199324</v>
       </c>
       <c r="E17">
-        <v>9.242317461856242</v>
+        <v>13.24476132417622</v>
       </c>
       <c r="F17">
-        <v>28.44409586583214</v>
+        <v>42.21822664953196</v>
       </c>
       <c r="G17">
-        <v>35.35291783189127</v>
+        <v>50.21511233778619</v>
       </c>
       <c r="H17">
-        <v>11.31177794114696</v>
+        <v>19.63610558946461</v>
       </c>
       <c r="I17">
-        <v>20.90060588760957</v>
+        <v>32.57134502436171</v>
       </c>
       <c r="J17">
-        <v>5.996353035987672</v>
+        <v>10.56863351139955</v>
       </c>
       <c r="K17">
-        <v>29.03142132555912</v>
+        <v>22.70768686850151</v>
       </c>
       <c r="L17">
-        <v>6.069284075895364</v>
+        <v>10.41870266188837</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.080845881360618</v>
+        <v>9.146574890734152</v>
       </c>
       <c r="D18">
-        <v>6.194283701299629</v>
+        <v>7.514910912357699</v>
       </c>
       <c r="E18">
-        <v>9.187188099122238</v>
+        <v>13.24024319840957</v>
       </c>
       <c r="F18">
-        <v>28.33338607876105</v>
+        <v>42.2492378553249</v>
       </c>
       <c r="G18">
-        <v>35.18318448816156</v>
+        <v>50.2620741870242</v>
       </c>
       <c r="H18">
-        <v>11.32236790509026</v>
+        <v>19.65653682217996</v>
       </c>
       <c r="I18">
-        <v>20.84649096441663</v>
+        <v>32.59874529112998</v>
       </c>
       <c r="J18">
-        <v>5.99724922314098</v>
+        <v>10.57355189175532</v>
       </c>
       <c r="K18">
-        <v>28.6594842334199</v>
+        <v>22.58251847043143</v>
       </c>
       <c r="L18">
-        <v>6.062853499654246</v>
+        <v>10.42186003838081</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.053387212384944</v>
+        <v>9.140729615758435</v>
       </c>
       <c r="D19">
-        <v>6.174081966335958</v>
+        <v>7.510450293486827</v>
       </c>
       <c r="E19">
-        <v>9.168529765630201</v>
+        <v>13.2387411287587</v>
       </c>
       <c r="F19">
-        <v>28.29670950578028</v>
+        <v>42.25994902473889</v>
       </c>
       <c r="G19">
-        <v>35.12707400959013</v>
+        <v>50.27829485676888</v>
       </c>
       <c r="H19">
-        <v>11.32626959795265</v>
+        <v>19.66352960990475</v>
       </c>
       <c r="I19">
-        <v>20.82878082339198</v>
+        <v>32.60817322752029</v>
       </c>
       <c r="J19">
-        <v>5.997606451067821</v>
+        <v>10.57523740593371</v>
       </c>
       <c r="K19">
-        <v>28.53264124652215</v>
+        <v>22.54001041741651</v>
       </c>
       <c r="L19">
-        <v>6.060720514993371</v>
+        <v>10.42294720902319</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.176457253196572</v>
+        <v>9.167067433415745</v>
       </c>
       <c r="D20">
-        <v>6.26460496334032</v>
+        <v>7.530527003851782</v>
       </c>
       <c r="E20">
-        <v>9.252524039318713</v>
+        <v>13.24561066208624</v>
       </c>
       <c r="F20">
-        <v>28.46497202405619</v>
+        <v>42.21258764039029</v>
       </c>
       <c r="G20">
-        <v>35.38498088712456</v>
+        <v>50.20657306478829</v>
       </c>
       <c r="H20">
-        <v>11.30997001493512</v>
+        <v>19.63235992885249</v>
       </c>
       <c r="I20">
-        <v>20.91091460042375</v>
+        <v>32.56634548468837</v>
       </c>
       <c r="J20">
-        <v>5.996212897884974</v>
+        <v>10.56773283938577</v>
       </c>
       <c r="K20">
-        <v>29.09982677036347</v>
+        <v>22.73079091090257</v>
       </c>
       <c r="L20">
-        <v>6.07049537704622</v>
+        <v>10.41812691501602</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.581152963041006</v>
+        <v>9.2560921804352</v>
       </c>
       <c r="D21">
-        <v>6.561907758917592</v>
+        <v>7.598009143874449</v>
       </c>
       <c r="E21">
-        <v>9.535142487580901</v>
+        <v>13.27060621325715</v>
       </c>
       <c r="F21">
-        <v>29.08802144227354</v>
+        <v>42.06821774362523</v>
       </c>
       <c r="G21">
-        <v>36.34836783192087</v>
+        <v>49.98800295898984</v>
       </c>
       <c r="H21">
-        <v>11.27835670930577</v>
+        <v>19.53287104138247</v>
       </c>
       <c r="I21">
-        <v>21.23093135714921</v>
+        <v>32.43632964073408</v>
       </c>
       <c r="J21">
-        <v>5.99538054670457</v>
+        <v>10.5439250098057</v>
       </c>
       <c r="K21">
-        <v>30.94282190704556</v>
+        <v>23.3623208214566</v>
       </c>
       <c r="L21">
-        <v>6.106483639683683</v>
+        <v>10.40319154346159</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.838990487988468</v>
+        <v>9.31460963659106</v>
       </c>
       <c r="D22">
-        <v>6.751052602536356</v>
+        <v>7.642093081897242</v>
       </c>
       <c r="E22">
-        <v>9.720039975700738</v>
+        <v>13.28835551466155</v>
       </c>
       <c r="F22">
-        <v>29.53997500923851</v>
+        <v>41.98493001674105</v>
       </c>
       <c r="G22">
-        <v>37.05282110651204</v>
+        <v>49.86200539420629</v>
       </c>
       <c r="H22">
-        <v>11.27635956583236</v>
+        <v>19.47176563925005</v>
       </c>
       <c r="I22">
-        <v>21.47462631196376</v>
+        <v>32.35924125811619</v>
       </c>
       <c r="J22">
-        <v>5.997838187444843</v>
+        <v>10.52941212141186</v>
       </c>
       <c r="K22">
-        <v>32.10151767962267</v>
+        <v>23.7673895548705</v>
       </c>
       <c r="L22">
-        <v>6.132427847197309</v>
+        <v>10.3943677694462</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.701990872714811</v>
+        <v>9.283351189247115</v>
       </c>
       <c r="D23">
-        <v>6.650577199570881</v>
+        <v>7.618568992568966</v>
       </c>
       <c r="E23">
-        <v>9.621345623299183</v>
+        <v>13.27875398457842</v>
       </c>
       <c r="F23">
-        <v>29.294553442003</v>
+        <v>42.02836544380517</v>
       </c>
       <c r="G23">
-        <v>36.66983226855638</v>
+        <v>49.92770123194922</v>
       </c>
       <c r="H23">
-        <v>11.27562488769946</v>
+        <v>19.50401954347877</v>
       </c>
       <c r="I23">
-        <v>21.34129199991278</v>
+        <v>32.3996605446802</v>
       </c>
       <c r="J23">
-        <v>5.996243021370768</v>
+        <v>10.5370622191681</v>
       </c>
       <c r="K23">
-        <v>31.48723148177614</v>
+        <v>23.55193686215036</v>
       </c>
       <c r="L23">
-        <v>6.11835389892081</v>
+        <v>10.39899153645277</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.16973163789512</v>
+        <v>9.165618920361368</v>
       </c>
       <c r="D24">
-        <v>6.259659408605628</v>
+        <v>7.529424283332372</v>
       </c>
       <c r="E24">
-        <v>9.247909600214415</v>
+        <v>13.24522618205725</v>
       </c>
       <c r="F24">
-        <v>28.45551925809884</v>
+        <v>42.21513315571563</v>
       </c>
       <c r="G24">
-        <v>35.37046053204124</v>
+        <v>50.21042778506622</v>
       </c>
       <c r="H24">
-        <v>11.31078150865194</v>
+        <v>19.63405195017388</v>
       </c>
       <c r="I24">
-        <v>20.90624284851717</v>
+        <v>32.5686030023413</v>
       </c>
       <c r="J24">
-        <v>5.99627526642729</v>
+        <v>10.56813965958107</v>
       </c>
       <c r="K24">
-        <v>29.06891763668361</v>
+        <v>22.72034813445874</v>
       </c>
       <c r="L24">
-        <v>6.06994694695647</v>
+        <v>10.41838687711063</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.567784329573639</v>
+        <v>9.040468202028753</v>
       </c>
       <c r="D25">
-        <v>5.816327130881644</v>
+        <v>7.433440893332283</v>
       </c>
       <c r="E25">
-        <v>8.846735064473712</v>
+        <v>13.21521647267866</v>
       </c>
       <c r="F25">
-        <v>27.73115777557153</v>
+        <v>42.46366334974645</v>
       </c>
       <c r="G25">
-        <v>34.27237034229343</v>
+        <v>50.58674697327632</v>
       </c>
       <c r="H25">
-        <v>11.41988325163029</v>
+        <v>19.79104297986325</v>
       </c>
       <c r="I25">
-        <v>20.57412753118463</v>
+        <v>32.78439851582147</v>
       </c>
       <c r="J25">
-        <v>6.008362047138151</v>
+        <v>10.6061653878717</v>
       </c>
       <c r="K25">
-        <v>26.25799410595119</v>
+        <v>21.79452374243852</v>
       </c>
       <c r="L25">
-        <v>6.02763816640599</v>
+        <v>10.44334423807297</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_80/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.950324975496269</v>
+        <v>7.101968087554981</v>
       </c>
       <c r="D2">
-        <v>7.363184871255143</v>
+        <v>5.472142200920415</v>
       </c>
       <c r="E2">
-        <v>13.19849402262084</v>
+        <v>8.553865979034772</v>
       </c>
       <c r="F2">
-        <v>42.68664402002148</v>
+        <v>27.33949742994832</v>
       </c>
       <c r="G2">
-        <v>50.9240849741746</v>
+        <v>33.70215793860519</v>
       </c>
       <c r="H2">
-        <v>19.92095029115883</v>
+        <v>11.55222467919707</v>
       </c>
       <c r="I2">
-        <v>32.97184719964956</v>
+        <v>20.43474488246292</v>
       </c>
       <c r="J2">
-        <v>10.6380506989057</v>
+        <v>6.026778684869001</v>
       </c>
       <c r="K2">
-        <v>21.09292738975575</v>
+        <v>24.05391357888461</v>
       </c>
       <c r="L2">
-        <v>10.46520630913917</v>
+        <v>6.004479681451094</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.890693630935456</v>
+        <v>6.773257192832041</v>
       </c>
       <c r="D3">
-        <v>7.315966163578727</v>
+        <v>5.228524307363428</v>
       </c>
       <c r="E3">
-        <v>13.19054907684496</v>
+        <v>8.35765822611231</v>
       </c>
       <c r="F3">
-        <v>42.86244418527542</v>
+        <v>27.15493428642658</v>
       </c>
       <c r="G3">
-        <v>51.18971017092255</v>
+        <v>33.45105500230576</v>
       </c>
       <c r="H3">
-        <v>20.01788411387478</v>
+        <v>11.67013668901104</v>
       </c>
       <c r="I3">
-        <v>33.11653979976615</v>
+        <v>20.39920586096971</v>
       </c>
       <c r="J3">
-        <v>10.66209144419277</v>
+        <v>6.044809062988631</v>
       </c>
       <c r="K3">
-        <v>20.60778879199564</v>
+        <v>22.51621626676726</v>
       </c>
       <c r="L3">
-        <v>10.48220430971549</v>
+        <v>5.993523749829659</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.854868360279134</v>
+        <v>6.565503833336843</v>
       </c>
       <c r="D4">
-        <v>7.287213331911786</v>
+        <v>5.074166488074086</v>
       </c>
       <c r="E4">
-        <v>13.18735302576636</v>
+        <v>8.2385758844687</v>
       </c>
       <c r="F4">
-        <v>42.98247200471939</v>
+        <v>27.07881827030003</v>
       </c>
       <c r="G4">
-        <v>51.37086215606471</v>
+        <v>33.3586715604573</v>
       </c>
       <c r="H4">
-        <v>20.08177748253189</v>
+        <v>11.75517200134235</v>
       </c>
       <c r="I4">
-        <v>33.21403736568448</v>
+        <v>20.40418167793765</v>
       </c>
       <c r="J4">
-        <v>10.67805437236292</v>
+        <v>6.058497717936212</v>
       </c>
       <c r="K4">
-        <v>20.30615757025016</v>
+        <v>21.52380716577907</v>
       </c>
       <c r="L4">
-        <v>10.49371978272552</v>
+        <v>5.989055684643139</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.840477907332895</v>
+        <v>6.479445491462499</v>
       </c>
       <c r="D5">
-        <v>7.275563467309532</v>
+        <v>5.010125618778307</v>
       </c>
       <c r="E5">
-        <v>13.18647526498306</v>
+        <v>8.190442042213645</v>
       </c>
       <c r="F5">
-        <v>43.03440979836601</v>
+        <v>27.05674048367971</v>
       </c>
       <c r="G5">
-        <v>51.44919388666914</v>
+        <v>33.33577788734664</v>
       </c>
       <c r="H5">
-        <v>20.10891304141727</v>
+        <v>11.79282329296467</v>
       </c>
       <c r="I5">
-        <v>33.25593687791794</v>
+        <v>20.4126081670683</v>
       </c>
       <c r="J5">
-        <v>10.68486193606472</v>
+        <v>6.064717435421459</v>
       </c>
       <c r="K5">
-        <v>20.18245780067639</v>
+        <v>21.10732789903906</v>
       </c>
       <c r="L5">
-        <v>10.49868402568438</v>
+        <v>5.987791674457731</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.838101280495888</v>
+        <v>6.465074199277401</v>
       </c>
       <c r="D6">
-        <v>7.273633270699663</v>
+        <v>4.999424926549509</v>
       </c>
       <c r="E6">
-        <v>13.18635520705063</v>
+        <v>8.182474505205278</v>
       </c>
       <c r="F6">
-        <v>43.0432163582791</v>
+        <v>27.05360199575101</v>
       </c>
       <c r="G6">
-        <v>51.46247237613303</v>
+        <v>33.33284375569862</v>
       </c>
       <c r="H6">
-        <v>20.11348517506086</v>
+        <v>11.79925136459131</v>
       </c>
       <c r="I6">
-        <v>33.26302499177742</v>
+        <v>20.41438390723546</v>
       </c>
       <c r="J6">
-        <v>10.68601060939822</v>
+        <v>6.06578848128662</v>
       </c>
       <c r="K6">
-        <v>20.16187513263587</v>
+        <v>21.03744608926509</v>
       </c>
       <c r="L6">
-        <v>10.49952474859643</v>
+        <v>5.987615087637074</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.854673427404203</v>
+        <v>6.564348743645479</v>
       </c>
       <c r="D7">
-        <v>7.287055936856039</v>
+        <v>5.073307331555005</v>
       </c>
       <c r="E7">
-        <v>13.18733946647991</v>
+        <v>8.23792508388706</v>
       </c>
       <c r="F7">
-        <v>42.98316022419984</v>
+        <v>27.07848488389731</v>
       </c>
       <c r="G7">
-        <v>51.37190034081589</v>
+        <v>33.35830413954046</v>
       </c>
       <c r="H7">
-        <v>20.08213899680728</v>
+        <v>11.75566786618339</v>
       </c>
       <c r="I7">
-        <v>33.21459366797818</v>
+        <v>20.40426986131768</v>
       </c>
       <c r="J7">
-        <v>10.67814495613149</v>
+        <v>6.058579023551397</v>
       </c>
       <c r="K7">
-        <v>20.30449226230111</v>
+        <v>21.51823910481541</v>
       </c>
       <c r="L7">
-        <v>10.4937856320924</v>
+        <v>5.989036398189699</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.92960669700466</v>
+        <v>6.989908485267869</v>
       </c>
       <c r="D8">
-        <v>7.346858283827083</v>
+        <v>5.389167766693192</v>
       </c>
       <c r="E8">
-        <v>13.19540650695394</v>
+        <v>8.485950664624212</v>
       </c>
       <c r="F8">
-        <v>42.74474342146723</v>
+        <v>27.26789281200335</v>
       </c>
       <c r="G8">
-        <v>51.011907026074</v>
+        <v>33.60229311710027</v>
       </c>
       <c r="H8">
-        <v>19.95346383095642</v>
+        <v>11.59014670602958</v>
       </c>
       <c r="I8">
-        <v>33.01993587447267</v>
+        <v>20.41672566069381</v>
       </c>
       <c r="J8">
-        <v>10.64609071330558</v>
+        <v>6.032441841255521</v>
       </c>
       <c r="K8">
-        <v>20.9265254193253</v>
+        <v>23.53376001389176</v>
       </c>
       <c r="L8">
-        <v>10.4708435695032</v>
+        <v>6.000226392844826</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.082342116239978</v>
+        <v>7.774174938367453</v>
       </c>
       <c r="D9">
-        <v>7.465726384800497</v>
+        <v>5.968497853307674</v>
       </c>
       <c r="E9">
-        <v>13.22449567287344</v>
+        <v>8.981565022978247</v>
       </c>
       <c r="F9">
-        <v>42.373699799849</v>
+        <v>27.95219860193532</v>
       </c>
       <c r="G9">
-        <v>50.45054740481847</v>
+        <v>34.60361245973434</v>
       </c>
       <c r="H9">
-        <v>19.73593168938777</v>
+        <v>11.37446167726931</v>
       </c>
       <c r="I9">
-        <v>32.70725021773899</v>
+        <v>20.66879476184953</v>
       </c>
       <c r="J9">
-        <v>10.59275345362597</v>
+        <v>6.00275806094129</v>
       </c>
       <c r="K9">
-        <v>22.10982858381671</v>
+        <v>27.23246025866295</v>
       </c>
       <c r="L9">
-        <v>10.43439675676555</v>
+        <v>6.040614330163383</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.197449101120347</v>
+        <v>8.316429640001662</v>
       </c>
       <c r="D10">
-        <v>7.553619130013114</v>
+        <v>6.367495185113678</v>
       </c>
       <c r="E10">
-        <v>13.25384602847249</v>
+        <v>9.349182712949462</v>
       </c>
       <c r="F10">
-        <v>42.1607132428422</v>
+        <v>28.66842448789597</v>
       </c>
       <c r="G10">
-        <v>50.12802309977297</v>
+        <v>35.69829617563558</v>
       </c>
       <c r="H10">
-        <v>19.59743792663054</v>
+        <v>11.2951823256535</v>
       </c>
       <c r="I10">
-        <v>32.52009250024534</v>
+        <v>21.0129456975705</v>
       </c>
       <c r="J10">
-        <v>10.55935071489566</v>
+        <v>5.995275729995553</v>
       </c>
       <c r="K10">
-        <v>22.94854048610991</v>
+        <v>29.74092699145474</v>
       </c>
       <c r="L10">
-        <v>10.41280556783955</v>
+        <v>6.082280279731769</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.250302691051647</v>
+        <v>8.555315606198054</v>
       </c>
       <c r="D11">
-        <v>7.593636709562119</v>
+        <v>6.542942742986717</v>
       </c>
       <c r="E11">
-        <v>13.26890386946911</v>
+        <v>9.516816015053067</v>
       </c>
       <c r="F11">
-        <v>42.07692908735626</v>
+        <v>29.04507595871284</v>
       </c>
       <c r="G11">
-        <v>50.00118697870541</v>
+        <v>36.28163355069434</v>
       </c>
       <c r="H11">
-        <v>19.53908979591331</v>
+        <v>11.27934722798534</v>
       </c>
       <c r="I11">
-        <v>32.44429585022823</v>
+        <v>21.20821647478815</v>
       </c>
       <c r="J11">
-        <v>10.54540667717452</v>
+        <v>5.9952623618087</v>
       </c>
       <c r="K11">
-        <v>23.32183333815084</v>
+        <v>30.82608750530547</v>
       </c>
       <c r="L11">
-        <v>10.40410466247471</v>
+        <v>6.104012065985569</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.270375584727136</v>
+        <v>8.644635258204483</v>
       </c>
       <c r="D12">
-        <v>7.608787758696938</v>
+        <v>6.608495912641205</v>
       </c>
       <c r="E12">
-        <v>13.27484864184345</v>
+        <v>9.580328832724618</v>
       </c>
       <c r="F12">
-        <v>42.04709943045726</v>
+        <v>29.19535786146268</v>
       </c>
       <c r="G12">
-        <v>49.95604557336534</v>
+        <v>36.51533105255149</v>
       </c>
       <c r="H12">
-        <v>19.51766631421065</v>
+        <v>11.2765296652314</v>
       </c>
       <c r="I12">
-        <v>32.41694532338985</v>
+        <v>21.28806209203436</v>
       </c>
       <c r="J12">
-        <v>10.54030600388497</v>
+        <v>5.995770021758872</v>
       </c>
       <c r="K12">
-        <v>23.46188353038645</v>
+        <v>31.22914010228732</v>
       </c>
       <c r="L12">
-        <v>10.40097066338296</v>
+        <v>6.112655920717672</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.266050125888007</v>
+        <v>8.625449654841178</v>
       </c>
       <c r="D13">
-        <v>7.605524954009319</v>
+        <v>6.594417366411157</v>
       </c>
       <c r="E13">
-        <v>13.27355757887962</v>
+        <v>9.566649027686802</v>
       </c>
       <c r="F13">
-        <v>42.05343918044743</v>
+        <v>29.16264630489295</v>
       </c>
       <c r="G13">
-        <v>49.96563864347483</v>
+        <v>36.4644229305873</v>
       </c>
       <c r="H13">
-        <v>19.52225032969691</v>
+        <v>11.27699064913527</v>
       </c>
       <c r="I13">
-        <v>32.42277548186095</v>
+        <v>21.27059821874009</v>
       </c>
       <c r="J13">
-        <v>10.54139654023264</v>
+        <v>5.995637463241712</v>
       </c>
       <c r="K13">
-        <v>23.43178122829421</v>
+        <v>31.14268285638763</v>
       </c>
       <c r="L13">
-        <v>10.40163847834406</v>
+        <v>6.11077562593085</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.251952999979597</v>
+        <v>8.56268694384049</v>
       </c>
       <c r="D14">
-        <v>7.594883294645123</v>
+        <v>6.54835363125374</v>
       </c>
       <c r="E14">
-        <v>13.26938810130467</v>
+        <v>9.52204069260346</v>
       </c>
       <c r="F14">
-        <v>42.07443687933583</v>
+        <v>29.05728446186584</v>
       </c>
       <c r="G14">
-        <v>49.99741510740375</v>
+        <v>36.30060060017922</v>
       </c>
       <c r="H14">
-        <v>19.53731379678437</v>
+        <v>11.27905012017525</v>
       </c>
       <c r="I14">
-        <v>32.44201856069701</v>
+        <v>21.21466527055152</v>
       </c>
       <c r="J14">
-        <v>10.54498344316157</v>
+        <v>5.995293700554663</v>
       </c>
       <c r="K14">
-        <v>23.33338222893365</v>
+        <v>30.859403668569</v>
       </c>
       <c r="L14">
-        <v>10.40384360499652</v>
+        <v>6.104714803950815</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.24332534408728</v>
+        <v>8.524093897488889</v>
       </c>
       <c r="D15">
-        <v>7.588364384931941</v>
+        <v>6.520022726321807</v>
       </c>
       <c r="E15">
-        <v>13.26686570027653</v>
+        <v>9.494720582680092</v>
       </c>
       <c r="F15">
-        <v>42.08754608065419</v>
+        <v>28.99375378049517</v>
       </c>
       <c r="G15">
-        <v>50.01725616838214</v>
+        <v>36.20193647649096</v>
       </c>
       <c r="H15">
-        <v>19.54662815540674</v>
+        <v>11.28073383779668</v>
       </c>
       <c r="I15">
-        <v>32.45398182775093</v>
+        <v>21.18118298497846</v>
       </c>
       <c r="J15">
-        <v>10.5472039101573</v>
+        <v>5.995150687299621</v>
       </c>
       <c r="K15">
-        <v>23.27293622057312</v>
+        <v>30.6848668398843</v>
       </c>
       <c r="L15">
-        <v>10.4052152447091</v>
+        <v>6.101056820163876</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.19400383048333</v>
+        <v>8.300659083440296</v>
       </c>
       <c r="D16">
-        <v>7.551003924574455</v>
+        <v>6.355906010498746</v>
       </c>
       <c r="E16">
-        <v>13.2528960732037</v>
+        <v>9.338233373564469</v>
       </c>
       <c r="F16">
-        <v>42.16645356715745</v>
+        <v>28.64486189888369</v>
       </c>
       <c r="G16">
-        <v>50.13671476836047</v>
+        <v>35.66193739675968</v>
       </c>
       <c r="H16">
-        <v>19.60134496776368</v>
+        <v>11.29664699871407</v>
       </c>
       <c r="I16">
-        <v>32.52523471999516</v>
+        <v>21.00099199894774</v>
       </c>
       <c r="J16">
-        <v>10.56028714182606</v>
+        <v>5.995346937899177</v>
       </c>
       <c r="K16">
-        <v>22.92396838594732</v>
+        <v>29.66889771002326</v>
       </c>
       <c r="L16">
-        <v>10.41339672011107</v>
+        <v>6.080917216420734</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.163863738703567</v>
+        <v>8.16157557221786</v>
       </c>
       <c r="D17">
-        <v>7.528087882199324</v>
+        <v>6.253661783502226</v>
       </c>
       <c r="E17">
-        <v>13.24476132417622</v>
+        <v>9.242317461856182</v>
       </c>
       <c r="F17">
-        <v>42.21822664953196</v>
+        <v>28.44409586583213</v>
       </c>
       <c r="G17">
-        <v>50.21511233778619</v>
+        <v>35.35291783189123</v>
       </c>
       <c r="H17">
-        <v>19.63610558946461</v>
+        <v>11.31177794114696</v>
       </c>
       <c r="I17">
-        <v>32.57134502436171</v>
+        <v>20.90060588760954</v>
       </c>
       <c r="J17">
-        <v>10.56863351139955</v>
+        <v>5.996353035987591</v>
       </c>
       <c r="K17">
-        <v>22.70768686850151</v>
+        <v>29.03142132555913</v>
       </c>
       <c r="L17">
-        <v>10.41870266188837</v>
+        <v>6.06928407589534</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.146574890734152</v>
+        <v>8.080845881360592</v>
       </c>
       <c r="D18">
-        <v>7.514910912357699</v>
+        <v>6.194283701299523</v>
       </c>
       <c r="E18">
-        <v>13.24024319840957</v>
+        <v>9.187188099122265</v>
       </c>
       <c r="F18">
-        <v>42.2492378553249</v>
+        <v>28.3333860787611</v>
       </c>
       <c r="G18">
-        <v>50.2620741870242</v>
+        <v>35.18318448816161</v>
       </c>
       <c r="H18">
-        <v>19.65653682217996</v>
+        <v>11.32236790509034</v>
       </c>
       <c r="I18">
-        <v>32.59874529112998</v>
+        <v>20.84649096441671</v>
       </c>
       <c r="J18">
-        <v>10.57355189175532</v>
+        <v>5.997249223141058</v>
       </c>
       <c r="K18">
-        <v>22.58251847043143</v>
+        <v>28.65948423341986</v>
       </c>
       <c r="L18">
-        <v>10.42186003838081</v>
+        <v>6.062853499654289</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.140729615758435</v>
+        <v>8.053387212384942</v>
       </c>
       <c r="D19">
-        <v>7.510450293486827</v>
+        <v>6.174081966335996</v>
       </c>
       <c r="E19">
-        <v>13.2387411287587</v>
+        <v>9.168529765630193</v>
       </c>
       <c r="F19">
-        <v>42.25994902473889</v>
+        <v>28.29670950578017</v>
       </c>
       <c r="G19">
-        <v>50.27829485676888</v>
+        <v>35.12707400958993</v>
       </c>
       <c r="H19">
-        <v>19.66352960990475</v>
+        <v>11.32626959795264</v>
       </c>
       <c r="I19">
-        <v>32.60817322752029</v>
+        <v>20.82878082339192</v>
       </c>
       <c r="J19">
-        <v>10.57523740593371</v>
+        <v>5.997606451067817</v>
       </c>
       <c r="K19">
-        <v>22.54001041741651</v>
+        <v>28.53264124652216</v>
       </c>
       <c r="L19">
-        <v>10.42294720902319</v>
+        <v>6.060720514993371</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.167067433415745</v>
+        <v>8.17645725319659</v>
       </c>
       <c r="D20">
-        <v>7.530527003851782</v>
+        <v>6.264604963340268</v>
       </c>
       <c r="E20">
-        <v>13.24561066208624</v>
+        <v>9.252524039318672</v>
       </c>
       <c r="F20">
-        <v>42.21258764039029</v>
+        <v>28.46497202405601</v>
       </c>
       <c r="G20">
-        <v>50.20657306478829</v>
+        <v>35.38498088712451</v>
       </c>
       <c r="H20">
-        <v>19.63235992885249</v>
+        <v>11.30997001493502</v>
       </c>
       <c r="I20">
-        <v>32.56634548468837</v>
+        <v>20.91091460042366</v>
       </c>
       <c r="J20">
-        <v>10.56773283938577</v>
+        <v>5.996212897884979</v>
       </c>
       <c r="K20">
-        <v>22.73079091090257</v>
+        <v>29.09982677036351</v>
       </c>
       <c r="L20">
-        <v>10.41812691501602</v>
+        <v>6.070495377046197</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.2560921804352</v>
+        <v>8.581152963040996</v>
       </c>
       <c r="D21">
-        <v>7.598009143874449</v>
+        <v>6.561907758917648</v>
       </c>
       <c r="E21">
-        <v>13.27060621325715</v>
+        <v>9.535142487580931</v>
       </c>
       <c r="F21">
-        <v>42.06821774362523</v>
+        <v>29.08802144227356</v>
       </c>
       <c r="G21">
-        <v>49.98800295898984</v>
+        <v>36.34836783192084</v>
       </c>
       <c r="H21">
-        <v>19.53287104138247</v>
+        <v>11.27835670930578</v>
       </c>
       <c r="I21">
-        <v>32.43632964073408</v>
+        <v>21.23093135714919</v>
       </c>
       <c r="J21">
-        <v>10.5439250098057</v>
+        <v>5.995380546704566</v>
       </c>
       <c r="K21">
-        <v>23.3623208214566</v>
+        <v>30.94282190704556</v>
       </c>
       <c r="L21">
-        <v>10.40319154346159</v>
+        <v>6.10648363968373</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.31460963659106</v>
+        <v>8.838990487988411</v>
       </c>
       <c r="D22">
-        <v>7.642093081897242</v>
+        <v>6.751052602536356</v>
       </c>
       <c r="E22">
-        <v>13.28835551466155</v>
+        <v>9.720039975700717</v>
       </c>
       <c r="F22">
-        <v>41.98493001674105</v>
+        <v>29.53997500923856</v>
       </c>
       <c r="G22">
-        <v>49.86200539420629</v>
+        <v>37.0528211065121</v>
       </c>
       <c r="H22">
-        <v>19.47176563925005</v>
+        <v>11.27635956583238</v>
       </c>
       <c r="I22">
-        <v>32.35924125811619</v>
+        <v>21.47462631196378</v>
       </c>
       <c r="J22">
-        <v>10.52941212141186</v>
+        <v>5.997838187444823</v>
       </c>
       <c r="K22">
-        <v>23.7673895548705</v>
+        <v>32.10151767962265</v>
       </c>
       <c r="L22">
-        <v>10.3943677694462</v>
+        <v>6.132427847197313</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.283351189247115</v>
+        <v>8.701990872714859</v>
       </c>
       <c r="D23">
-        <v>7.618568992568966</v>
+        <v>6.650577199570888</v>
       </c>
       <c r="E23">
-        <v>13.27875398457842</v>
+        <v>9.621345623299197</v>
       </c>
       <c r="F23">
-        <v>42.02836544380517</v>
+        <v>29.29455344200291</v>
       </c>
       <c r="G23">
-        <v>49.92770123194922</v>
+        <v>36.6698322685563</v>
       </c>
       <c r="H23">
-        <v>19.50401954347877</v>
+        <v>11.27562488769937</v>
       </c>
       <c r="I23">
-        <v>32.3996605446802</v>
+        <v>21.34129199991272</v>
       </c>
       <c r="J23">
-        <v>10.5370622191681</v>
+        <v>5.996243021370767</v>
       </c>
       <c r="K23">
-        <v>23.55193686215036</v>
+        <v>31.48723148177618</v>
       </c>
       <c r="L23">
-        <v>10.39899153645277</v>
+        <v>6.11835389892079</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.165618920361368</v>
+        <v>8.169731637895135</v>
       </c>
       <c r="D24">
-        <v>7.529424283332372</v>
+        <v>6.259659408605593</v>
       </c>
       <c r="E24">
-        <v>13.24522618205725</v>
+        <v>9.247909600214459</v>
       </c>
       <c r="F24">
-        <v>42.21513315571563</v>
+        <v>28.45551925809885</v>
       </c>
       <c r="G24">
-        <v>50.21042778506622</v>
+        <v>35.37046053204128</v>
       </c>
       <c r="H24">
-        <v>19.63405195017388</v>
+        <v>11.31078150865192</v>
       </c>
       <c r="I24">
-        <v>32.5686030023413</v>
+        <v>20.90624284851717</v>
       </c>
       <c r="J24">
-        <v>10.56813965958107</v>
+        <v>5.996275266427368</v>
       </c>
       <c r="K24">
-        <v>22.72034813445874</v>
+        <v>29.0689176366836</v>
       </c>
       <c r="L24">
-        <v>10.41838687711063</v>
+        <v>6.069946946956526</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.040468202028753</v>
+        <v>7.56778432957357</v>
       </c>
       <c r="D25">
-        <v>7.433440893332283</v>
+        <v>5.816327130881625</v>
       </c>
       <c r="E25">
-        <v>13.21521647267866</v>
+        <v>8.846735064473657</v>
       </c>
       <c r="F25">
-        <v>42.46366334974645</v>
+        <v>27.73115777557107</v>
       </c>
       <c r="G25">
-        <v>50.58674697327632</v>
+        <v>34.27237034229292</v>
       </c>
       <c r="H25">
-        <v>19.79104297986325</v>
+        <v>11.41988325163009</v>
       </c>
       <c r="I25">
-        <v>32.78439851582147</v>
+        <v>20.57412753118423</v>
       </c>
       <c r="J25">
-        <v>10.6061653878717</v>
+        <v>6.008362047138043</v>
       </c>
       <c r="K25">
-        <v>21.79452374243852</v>
+        <v>26.25799410595126</v>
       </c>
       <c r="L25">
-        <v>10.44334423807297</v>
+        <v>6.027638166405942</v>
       </c>
       <c r="M25">
         <v>0</v>
